--- a/tabular/curated/hhv-ncbi-curated-side-data.xlsx
+++ b/tabular/curated/hhv-ncbi-curated-side-data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/general/HHV6-GLUE/tabular/curated/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{562CA338-0ED1-404B-9E2D-483EC8F612AE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE6D9A7C-A86D-1743-BB81-CA68A430025C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9240" yWindow="2480" windowWidth="28040" windowHeight="17440" xr2:uid="{152BD880-3909-2046-B14F-08FB1215E865}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2109" uniqueCount="482">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2105" uniqueCount="488">
   <si>
     <t>sequenceID</t>
   </si>
@@ -1479,6 +1479,24 @@
   </si>
   <si>
     <t>A4</t>
+  </si>
+  <si>
+    <t>Chr3q</t>
+  </si>
+  <si>
+    <t>Ch1q</t>
+  </si>
+  <si>
+    <t>NK1</t>
+  </si>
+  <si>
+    <t>NK2</t>
+  </si>
+  <si>
+    <t>Chr15q</t>
+  </si>
+  <si>
+    <t>NK3</t>
   </si>
 </sst>
 </file>
@@ -1873,8 +1891,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21D611B1-781A-E041-9B61-F125F05C4348}">
   <dimension ref="A1:J218"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E90" sqref="E21:E90"/>
+    <sheetView tabSelected="1" topLeftCell="B175" workbookViewId="0">
+      <selection activeCell="I186" sqref="A1:J218"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6820,14 +6838,14 @@
       <c r="B155" s="6" t="s">
         <v>468</v>
       </c>
-      <c r="C155" s="6" t="s">
-        <v>4</v>
+      <c r="C155" s="6" t="b">
+        <v>1</v>
       </c>
       <c r="D155" s="6" t="s">
-        <v>4</v>
+        <v>486</v>
       </c>
       <c r="E155" s="6" t="s">
-        <v>4</v>
+        <v>487</v>
       </c>
       <c r="F155" s="6" t="s">
         <v>4</v>
@@ -8171,7 +8189,7 @@
         <v>4</v>
       </c>
       <c r="E197" s="6" t="s">
-        <v>4</v>
+        <v>72</v>
       </c>
       <c r="F197" s="6" t="s">
         <v>4</v>
@@ -8356,14 +8374,14 @@
       <c r="B203" s="6" t="s">
         <v>468</v>
       </c>
-      <c r="C203" s="6" t="s">
-        <v>4</v>
+      <c r="C203" s="6" t="b">
+        <v>1</v>
       </c>
       <c r="D203" s="6" t="s">
-        <v>4</v>
+        <v>482</v>
       </c>
       <c r="E203" s="6" t="s">
-        <v>4</v>
+        <v>484</v>
       </c>
       <c r="F203" s="6" t="s">
         <v>4</v>
@@ -8420,14 +8438,14 @@
       <c r="B205" s="6" t="s">
         <v>468</v>
       </c>
-      <c r="C205" s="6" t="s">
-        <v>4</v>
+      <c r="C205" s="6" t="b">
+        <v>1</v>
       </c>
       <c r="D205" s="6" t="s">
-        <v>4</v>
+        <v>483</v>
       </c>
       <c r="E205" s="6" t="s">
-        <v>4</v>
+        <v>485</v>
       </c>
       <c r="F205" s="6" t="s">
         <v>4</v>
@@ -8452,14 +8470,14 @@
       <c r="B206" s="6" t="s">
         <v>468</v>
       </c>
-      <c r="C206" s="6" t="s">
-        <v>4</v>
+      <c r="C206" s="6" t="b">
+        <v>1</v>
       </c>
       <c r="D206" s="6" t="s">
-        <v>4</v>
+        <v>483</v>
       </c>
       <c r="E206" s="6" t="s">
-        <v>4</v>
+        <v>485</v>
       </c>
       <c r="F206" s="6" t="s">
         <v>4</v>

--- a/tabular/curated/hhv-ncbi-curated-side-data.xlsx
+++ b/tabular/curated/hhv-ncbi-curated-side-data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rob/Projects/virus/general/HHV6-GLUE/tabular/curated/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anna/Projects/virus/HHV6-GLUE/tabular/curated/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2398AE08-4E94-084F-9930-284C5AEEE361}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BD81415-DF2A-C044-8869-0E4DB5A62B82}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="760" yWindow="560" windowWidth="28040" windowHeight="17440" xr2:uid="{152BD880-3909-2046-B14F-08FB1215E865}"/>
+    <workbookView xWindow="760" yWindow="460" windowWidth="28040" windowHeight="16420" xr2:uid="{152BD880-3909-2046-B14F-08FB1215E865}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2097" uniqueCount="488">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2097" uniqueCount="487">
   <si>
     <t>sequenceID</t>
   </si>
@@ -1428,9 +1428,6 @@
   </si>
   <si>
     <t>name</t>
-  </si>
-  <si>
-    <t>Human betaherpesvirus 6</t>
   </si>
   <si>
     <t>Human betaherpesvirus 6A</t>
@@ -1892,7 +1889,7 @@
   <dimension ref="A1:J218"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="A1:J218"/>
+      <selection activeCell="B16" sqref="A1:J218"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1923,7 +1920,7 @@
         <v>1</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>188</v>
@@ -1943,7 +1940,7 @@
         <v>69</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>3</v>
@@ -1967,7 +1964,7 @@
         <v>3</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
@@ -1975,7 +1972,7 @@
         <v>72</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>3</v>
@@ -1999,7 +1996,7 @@
         <v>3</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
@@ -2007,7 +2004,7 @@
         <v>73</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>3</v>
@@ -2031,7 +2028,7 @@
         <v>3</v>
       </c>
       <c r="J4" s="6" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
@@ -2039,7 +2036,7 @@
         <v>74</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>3</v>
@@ -2063,7 +2060,7 @@
         <v>3</v>
       </c>
       <c r="J5" s="6" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
@@ -2071,7 +2068,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>3</v>
@@ -2094,8 +2091,8 @@
       <c r="I6" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="J6" s="4" t="s">
-        <v>3</v>
+      <c r="J6" s="6" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
@@ -2103,7 +2100,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>3</v>
@@ -2126,8 +2123,8 @@
       <c r="I7" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="J7" s="4" t="s">
-        <v>3</v>
+      <c r="J7" s="6" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
@@ -2135,7 +2132,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>3</v>
@@ -2158,8 +2155,8 @@
       <c r="I8" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="J8" s="4" t="s">
-        <v>3</v>
+      <c r="J8" s="6" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
@@ -2167,7 +2164,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>3</v>
@@ -2190,8 +2187,8 @@
       <c r="I9" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="J9" s="4" t="s">
-        <v>3</v>
+      <c r="J9" s="6" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
@@ -2199,7 +2196,7 @@
         <v>75</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>3</v>
@@ -2222,8 +2219,8 @@
       <c r="I10" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="J10" s="4" t="s">
-        <v>3</v>
+      <c r="J10" s="6" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
@@ -2231,7 +2228,7 @@
         <v>76</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>3</v>
@@ -2254,8 +2251,8 @@
       <c r="I11" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="J11" s="4" t="s">
-        <v>3</v>
+      <c r="J11" s="6" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
@@ -2263,7 +2260,7 @@
         <v>77</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>3</v>
@@ -2286,8 +2283,8 @@
       <c r="I12" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="J12" s="4" t="s">
-        <v>3</v>
+      <c r="J12" s="6" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
@@ -2295,7 +2292,7 @@
         <v>78</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>3</v>
@@ -2318,8 +2315,8 @@
       <c r="I13" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="J13" s="4" t="s">
-        <v>3</v>
+      <c r="J13" s="6" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
@@ -2327,7 +2324,7 @@
         <v>7</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C14" s="6" t="s">
         <v>3</v>
@@ -2359,7 +2356,7 @@
         <v>11</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C15" s="6" t="s">
         <v>3</v>
@@ -2383,7 +2380,7 @@
         <v>3</v>
       </c>
       <c r="J15" s="6" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
@@ -2391,7 +2388,7 @@
         <v>12</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C16" s="6" t="s">
         <v>3</v>
@@ -2423,7 +2420,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C17" s="6" t="b">
         <v>1</v>
@@ -2455,7 +2452,7 @@
         <v>189</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C18" s="6" t="s">
         <v>3</v>
@@ -2487,7 +2484,7 @@
         <v>191</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C19" s="6" t="s">
         <v>3</v>
@@ -2519,7 +2516,7 @@
         <v>193</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C20" s="6" t="s">
         <v>3</v>
@@ -2551,7 +2548,7 @@
         <v>195</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C21" s="6" t="s">
         <v>3</v>
@@ -2583,7 +2580,7 @@
         <v>197</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C22" s="6" t="s">
         <v>3</v>
@@ -2615,7 +2612,7 @@
         <v>199</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C23" s="6" t="s">
         <v>3</v>
@@ -2647,7 +2644,7 @@
         <v>201</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C24" s="6" t="s">
         <v>3</v>
@@ -2679,7 +2676,7 @@
         <v>203</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C25" s="6" t="s">
         <v>3</v>
@@ -2711,7 +2708,7 @@
         <v>205</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C26" s="6" t="s">
         <v>3</v>
@@ -2743,7 +2740,7 @@
         <v>207</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C27" s="6" t="s">
         <v>3</v>
@@ -2775,7 +2772,7 @@
         <v>209</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C28" s="6" t="s">
         <v>3</v>
@@ -2807,7 +2804,7 @@
         <v>211</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C29" s="6" t="s">
         <v>3</v>
@@ -2839,7 +2836,7 @@
         <v>213</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C30" s="6" t="s">
         <v>3</v>
@@ -2871,7 +2868,7 @@
         <v>215</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C31" s="6" t="s">
         <v>3</v>
@@ -2903,7 +2900,7 @@
         <v>217</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C32" s="6" t="s">
         <v>3</v>
@@ -2935,7 +2932,7 @@
         <v>219</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C33" s="6" t="s">
         <v>3</v>
@@ -2967,7 +2964,7 @@
         <v>221</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C34" s="6" t="s">
         <v>3</v>
@@ -2999,7 +2996,7 @@
         <v>223</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C35" s="6" t="s">
         <v>3</v>
@@ -3031,7 +3028,7 @@
         <v>225</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C36" s="6" t="s">
         <v>3</v>
@@ -3063,7 +3060,7 @@
         <v>227</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C37" s="6" t="s">
         <v>3</v>
@@ -3095,7 +3092,7 @@
         <v>229</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C38" s="6" t="s">
         <v>3</v>
@@ -3127,7 +3124,7 @@
         <v>231</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C39" s="6" t="s">
         <v>3</v>
@@ -3159,7 +3156,7 @@
         <v>233</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C40" s="6" t="s">
         <v>3</v>
@@ -3191,7 +3188,7 @@
         <v>235</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C41" s="6" t="s">
         <v>3</v>
@@ -3223,7 +3220,7 @@
         <v>237</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C42" s="6" t="s">
         <v>3</v>
@@ -3255,7 +3252,7 @@
         <v>239</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C43" s="6" t="s">
         <v>3</v>
@@ -3287,7 +3284,7 @@
         <v>241</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C44" s="6" t="s">
         <v>3</v>
@@ -3319,7 +3316,7 @@
         <v>243</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C45" s="6" t="s">
         <v>3</v>
@@ -3351,7 +3348,7 @@
         <v>245</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C46" s="6" t="s">
         <v>3</v>
@@ -3383,7 +3380,7 @@
         <v>247</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C47" s="6" t="s">
         <v>3</v>
@@ -3415,7 +3412,7 @@
         <v>249</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C48" s="6" t="s">
         <v>3</v>
@@ -3447,7 +3444,7 @@
         <v>251</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C49" s="6" t="s">
         <v>3</v>
@@ -3479,7 +3476,7 @@
         <v>253</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C50" s="6" t="s">
         <v>3</v>
@@ -3511,7 +3508,7 @@
         <v>255</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C51" s="6" t="s">
         <v>3</v>
@@ -3543,7 +3540,7 @@
         <v>257</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C52" s="6" t="s">
         <v>3</v>
@@ -3575,7 +3572,7 @@
         <v>259</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C53" s="6" t="s">
         <v>3</v>
@@ -3607,16 +3604,16 @@
         <v>261</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C54" s="6" t="b">
         <v>1</v>
       </c>
       <c r="D54" s="6" t="s">
+        <v>474</v>
+      </c>
+      <c r="E54" s="6" t="s">
         <v>475</v>
-      </c>
-      <c r="E54" s="6" t="s">
-        <v>476</v>
       </c>
       <c r="F54" s="6" t="s">
         <v>3</v>
@@ -3639,7 +3636,7 @@
         <v>263</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C55" s="6" t="s">
         <v>3</v>
@@ -3671,7 +3668,7 @@
         <v>265</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C56" s="6" t="s">
         <v>3</v>
@@ -3703,7 +3700,7 @@
         <v>267</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C57" s="6" t="s">
         <v>3</v>
@@ -3735,7 +3732,7 @@
         <v>269</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C58" s="6" t="s">
         <v>3</v>
@@ -3767,7 +3764,7 @@
         <v>271</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C59" s="6" t="s">
         <v>3</v>
@@ -3799,7 +3796,7 @@
         <v>273</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C60" s="6" t="s">
         <v>3</v>
@@ -3831,7 +3828,7 @@
         <v>275</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C61" s="6" t="s">
         <v>3</v>
@@ -3863,7 +3860,7 @@
         <v>277</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C62" s="6" t="s">
         <v>3</v>
@@ -3895,7 +3892,7 @@
         <v>279</v>
       </c>
       <c r="B63" s="6" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C63" s="6" t="s">
         <v>3</v>
@@ -3927,7 +3924,7 @@
         <v>281</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C64" s="6" t="s">
         <v>3</v>
@@ -3959,16 +3956,16 @@
         <v>283</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C65" s="6" t="b">
         <v>1</v>
       </c>
       <c r="D65" s="6" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="E65" s="6" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="F65" s="6" t="s">
         <v>3</v>
@@ -3991,7 +3988,7 @@
         <v>285</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C66" s="6" t="s">
         <v>3</v>
@@ -4023,7 +4020,7 @@
         <v>287</v>
       </c>
       <c r="B67" s="6" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C67" s="6" t="s">
         <v>3</v>
@@ -4055,7 +4052,7 @@
         <v>289</v>
       </c>
       <c r="B68" s="6" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C68" s="6" t="b">
         <v>1</v>
@@ -4087,7 +4084,7 @@
         <v>291</v>
       </c>
       <c r="B69" s="6" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C69" s="6" t="s">
         <v>3</v>
@@ -4119,7 +4116,7 @@
         <v>293</v>
       </c>
       <c r="B70" s="6" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C70" s="6" t="s">
         <v>3</v>
@@ -4151,7 +4148,7 @@
         <v>295</v>
       </c>
       <c r="B71" s="6" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C71" s="6" t="s">
         <v>3</v>
@@ -4183,7 +4180,7 @@
         <v>297</v>
       </c>
       <c r="B72" s="6" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C72" s="6" t="s">
         <v>3</v>
@@ -4215,7 +4212,7 @@
         <v>299</v>
       </c>
       <c r="B73" s="6" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C73" s="6" t="s">
         <v>3</v>
@@ -4247,7 +4244,7 @@
         <v>301</v>
       </c>
       <c r="B74" s="6" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C74" s="6" t="s">
         <v>3</v>
@@ -4279,7 +4276,7 @@
         <v>303</v>
       </c>
       <c r="B75" s="6" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C75" s="6" t="s">
         <v>3</v>
@@ -4311,7 +4308,7 @@
         <v>305</v>
       </c>
       <c r="B76" s="6" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C76" s="6" t="s">
         <v>3</v>
@@ -4343,7 +4340,7 @@
         <v>307</v>
       </c>
       <c r="B77" s="6" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C77" s="6" t="s">
         <v>3</v>
@@ -4375,7 +4372,7 @@
         <v>309</v>
       </c>
       <c r="B78" s="6" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C78" s="6" t="s">
         <v>3</v>
@@ -4407,7 +4404,7 @@
         <v>311</v>
       </c>
       <c r="B79" s="6" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C79" s="6" t="s">
         <v>3</v>
@@ -4439,7 +4436,7 @@
         <v>313</v>
       </c>
       <c r="B80" s="6" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C80" s="6" t="s">
         <v>3</v>
@@ -4471,7 +4468,7 @@
         <v>315</v>
       </c>
       <c r="B81" s="6" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C81" s="6" t="s">
         <v>3</v>
@@ -4503,7 +4500,7 @@
         <v>317</v>
       </c>
       <c r="B82" s="6" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C82" s="6" t="s">
         <v>3</v>
@@ -4535,7 +4532,7 @@
         <v>319</v>
       </c>
       <c r="B83" s="6" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C83" s="6" t="s">
         <v>3</v>
@@ -4567,7 +4564,7 @@
         <v>321</v>
       </c>
       <c r="B84" s="6" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C84" s="6" t="s">
         <v>3</v>
@@ -4599,7 +4596,7 @@
         <v>323</v>
       </c>
       <c r="B85" s="6" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C85" s="6" t="s">
         <v>3</v>
@@ -4631,7 +4628,7 @@
         <v>325</v>
       </c>
       <c r="B86" s="6" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C86" s="6" t="s">
         <v>3</v>
@@ -4663,7 +4660,7 @@
         <v>327</v>
       </c>
       <c r="B87" s="6" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C87" s="6" t="s">
         <v>3</v>
@@ -4695,7 +4692,7 @@
         <v>329</v>
       </c>
       <c r="B88" s="6" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C88" s="6" t="s">
         <v>3</v>
@@ -4727,7 +4724,7 @@
         <v>331</v>
       </c>
       <c r="B89" s="6" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C89" s="6" t="s">
         <v>3</v>
@@ -4759,7 +4756,7 @@
         <v>333</v>
       </c>
       <c r="B90" s="6" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C90" s="6" t="s">
         <v>3</v>
@@ -4791,7 +4788,7 @@
         <v>335</v>
       </c>
       <c r="B91" s="6" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C91" s="6" t="s">
         <v>3</v>
@@ -4823,7 +4820,7 @@
         <v>337</v>
       </c>
       <c r="B92" s="6" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C92" s="6" t="s">
         <v>3</v>
@@ -4855,7 +4852,7 @@
         <v>339</v>
       </c>
       <c r="B93" s="6" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C93" s="6" t="s">
         <v>3</v>
@@ -4887,7 +4884,7 @@
         <v>341</v>
       </c>
       <c r="B94" s="6" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C94" s="6" t="s">
         <v>3</v>
@@ -4919,7 +4916,7 @@
         <v>343</v>
       </c>
       <c r="B95" s="6" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C95" s="6" t="s">
         <v>3</v>
@@ -4951,7 +4948,7 @@
         <v>345</v>
       </c>
       <c r="B96" s="6" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C96" s="6" t="s">
         <v>3</v>
@@ -4983,7 +4980,7 @@
         <v>347</v>
       </c>
       <c r="B97" s="6" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C97" s="6" t="s">
         <v>3</v>
@@ -5015,7 +5012,7 @@
         <v>349</v>
       </c>
       <c r="B98" s="6" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C98" s="6" t="s">
         <v>3</v>
@@ -5047,7 +5044,7 @@
         <v>351</v>
       </c>
       <c r="B99" s="6" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C99" s="6" t="s">
         <v>3</v>
@@ -5079,7 +5076,7 @@
         <v>353</v>
       </c>
       <c r="B100" s="6" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C100" s="6" t="s">
         <v>3</v>
@@ -5111,7 +5108,7 @@
         <v>355</v>
       </c>
       <c r="B101" s="6" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C101" s="6" t="s">
         <v>3</v>
@@ -5143,7 +5140,7 @@
         <v>357</v>
       </c>
       <c r="B102" s="6" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C102" s="6" t="s">
         <v>3</v>
@@ -5175,7 +5172,7 @@
         <v>359</v>
       </c>
       <c r="B103" s="6" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C103" s="6" t="s">
         <v>3</v>
@@ -5207,7 +5204,7 @@
         <v>361</v>
       </c>
       <c r="B104" s="6" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C104" s="6" t="s">
         <v>3</v>
@@ -5239,7 +5236,7 @@
         <v>363</v>
       </c>
       <c r="B105" s="6" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C105" s="6" t="s">
         <v>3</v>
@@ -5271,7 +5268,7 @@
         <v>365</v>
       </c>
       <c r="B106" s="6" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C106" s="6" t="s">
         <v>3</v>
@@ -5303,7 +5300,7 @@
         <v>367</v>
       </c>
       <c r="B107" s="6" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C107" s="6" t="s">
         <v>3</v>
@@ -5335,7 +5332,7 @@
         <v>369</v>
       </c>
       <c r="B108" s="6" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C108" s="6" t="s">
         <v>3</v>
@@ -5367,7 +5364,7 @@
         <v>371</v>
       </c>
       <c r="B109" s="6" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C109" s="6" t="s">
         <v>3</v>
@@ -5399,7 +5396,7 @@
         <v>373</v>
       </c>
       <c r="B110" s="6" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C110" s="6" t="s">
         <v>3</v>
@@ -5431,7 +5428,7 @@
         <v>375</v>
       </c>
       <c r="B111" s="6" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C111" s="6" t="s">
         <v>3</v>
@@ -5463,7 +5460,7 @@
         <v>377</v>
       </c>
       <c r="B112" s="6" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C112" s="6" t="s">
         <v>3</v>
@@ -5495,7 +5492,7 @@
         <v>379</v>
       </c>
       <c r="B113" s="6" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C113" s="6" t="s">
         <v>3</v>
@@ -5527,7 +5524,7 @@
         <v>381</v>
       </c>
       <c r="B114" s="6" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C114" s="6" t="s">
         <v>3</v>
@@ -5559,7 +5556,7 @@
         <v>383</v>
       </c>
       <c r="B115" s="6" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C115" s="6" t="s">
         <v>3</v>
@@ -5591,7 +5588,7 @@
         <v>385</v>
       </c>
       <c r="B116" s="6" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C116" s="6" t="s">
         <v>3</v>
@@ -5623,7 +5620,7 @@
         <v>387</v>
       </c>
       <c r="B117" s="6" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C117" s="6" t="s">
         <v>3</v>
@@ -5655,7 +5652,7 @@
         <v>389</v>
       </c>
       <c r="B118" s="6" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C118" s="6" t="s">
         <v>3</v>
@@ -5687,7 +5684,7 @@
         <v>391</v>
       </c>
       <c r="B119" s="6" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C119" s="6" t="s">
         <v>3</v>
@@ -5719,7 +5716,7 @@
         <v>393</v>
       </c>
       <c r="B120" s="6" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C120" s="6" t="s">
         <v>3</v>
@@ -5751,7 +5748,7 @@
         <v>395</v>
       </c>
       <c r="B121" s="6" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C121" s="6" t="s">
         <v>3</v>
@@ -5783,7 +5780,7 @@
         <v>397</v>
       </c>
       <c r="B122" s="6" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C122" s="6" t="s">
         <v>3</v>
@@ -5815,7 +5812,7 @@
         <v>400</v>
       </c>
       <c r="B123" s="6" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C123" s="6" t="s">
         <v>3</v>
@@ -5847,7 +5844,7 @@
         <v>402</v>
       </c>
       <c r="B124" s="6" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C124" s="6" t="s">
         <v>3</v>
@@ -5879,16 +5876,16 @@
         <v>404</v>
       </c>
       <c r="B125" s="6" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C125" s="6" t="b">
         <v>1</v>
       </c>
       <c r="D125" s="6" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="E125" s="6" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="G125" s="6" t="s">
         <v>405</v>
@@ -5908,7 +5905,7 @@
         <v>406</v>
       </c>
       <c r="B126" s="6" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C126" s="6" t="s">
         <v>3</v>
@@ -5940,7 +5937,7 @@
         <v>408</v>
       </c>
       <c r="B127" s="6" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C127" s="6" t="s">
         <v>3</v>
@@ -5972,7 +5969,7 @@
         <v>410</v>
       </c>
       <c r="B128" s="6" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C128" s="6" t="s">
         <v>3</v>
@@ -6004,16 +6001,16 @@
         <v>412</v>
       </c>
       <c r="B129" s="6" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C129" s="6" t="b">
         <v>1</v>
       </c>
       <c r="D129" s="6" t="s">
+        <v>478</v>
+      </c>
+      <c r="E129" s="6" t="s">
         <v>479</v>
-      </c>
-      <c r="E129" s="6" t="s">
-        <v>480</v>
       </c>
       <c r="F129" s="6" t="s">
         <v>3</v>
@@ -6036,7 +6033,7 @@
         <v>414</v>
       </c>
       <c r="B130" s="6" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C130" s="6" t="s">
         <v>3</v>
@@ -6068,7 +6065,7 @@
         <v>416</v>
       </c>
       <c r="B131" s="6" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C131" s="6" t="s">
         <v>3</v>
@@ -6100,7 +6097,7 @@
         <v>418</v>
       </c>
       <c r="B132" s="6" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C132" s="6" t="s">
         <v>3</v>
@@ -6132,7 +6129,7 @@
         <v>420</v>
       </c>
       <c r="B133" s="6" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C133" s="6" t="s">
         <v>3</v>
@@ -6164,7 +6161,7 @@
         <v>422</v>
       </c>
       <c r="B134" s="6" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C134" s="6" t="s">
         <v>3</v>
@@ -6196,7 +6193,7 @@
         <v>424</v>
       </c>
       <c r="B135" s="6" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C135" s="6" t="s">
         <v>3</v>
@@ -6228,7 +6225,7 @@
         <v>426</v>
       </c>
       <c r="B136" s="6" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C136" s="6" t="s">
         <v>3</v>
@@ -6260,7 +6257,7 @@
         <v>428</v>
       </c>
       <c r="B137" s="6" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C137" s="6" t="s">
         <v>3</v>
@@ -6292,7 +6289,7 @@
         <v>430</v>
       </c>
       <c r="B138" s="6" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C138" s="6" t="s">
         <v>3</v>
@@ -6324,7 +6321,7 @@
         <v>432</v>
       </c>
       <c r="B139" s="6" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C139" s="6" t="s">
         <v>3</v>
@@ -6356,7 +6353,7 @@
         <v>434</v>
       </c>
       <c r="B140" s="6" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C140" s="6" t="s">
         <v>3</v>
@@ -6388,7 +6385,7 @@
         <v>436</v>
       </c>
       <c r="B141" s="6" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C141" s="6" t="s">
         <v>3</v>
@@ -6420,7 +6417,7 @@
         <v>438</v>
       </c>
       <c r="B142" s="6" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C142" s="6" t="s">
         <v>3</v>
@@ -6452,7 +6449,7 @@
         <v>440</v>
       </c>
       <c r="B143" s="6" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C143" s="6" t="s">
         <v>3</v>
@@ -6484,7 +6481,7 @@
         <v>442</v>
       </c>
       <c r="B144" s="6" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C144" s="6" t="s">
         <v>3</v>
@@ -6516,7 +6513,7 @@
         <v>444</v>
       </c>
       <c r="B145" s="6" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C145" s="6" t="s">
         <v>3</v>
@@ -6548,7 +6545,7 @@
         <v>446</v>
       </c>
       <c r="B146" s="6" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C146" s="6" t="s">
         <v>3</v>
@@ -6557,7 +6554,7 @@
         <v>3</v>
       </c>
       <c r="E146" s="6" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="F146" s="6" t="s">
         <v>3</v>
@@ -6580,7 +6577,7 @@
         <v>448</v>
       </c>
       <c r="B147" s="6" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C147" s="6" t="s">
         <v>3</v>
@@ -6612,7 +6609,7 @@
         <v>79</v>
       </c>
       <c r="B148" s="6" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C148" s="6" t="s">
         <v>3</v>
@@ -6644,7 +6641,7 @@
         <v>82</v>
       </c>
       <c r="B149" s="6" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C149" s="6" t="s">
         <v>3</v>
@@ -6676,7 +6673,7 @@
         <v>84</v>
       </c>
       <c r="B150" s="6" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C150" s="6" t="s">
         <v>3</v>
@@ -6708,7 +6705,7 @@
         <v>86</v>
       </c>
       <c r="B151" s="6" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C151" s="6" t="s">
         <v>3</v>
@@ -6740,7 +6737,7 @@
         <v>88</v>
       </c>
       <c r="B152" s="6" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C152" s="6" t="s">
         <v>3</v>
@@ -6772,7 +6769,7 @@
         <v>91</v>
       </c>
       <c r="B153" s="6" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C153" s="6" t="s">
         <v>3</v>
@@ -6804,7 +6801,7 @@
         <v>93</v>
       </c>
       <c r="B154" s="6" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C154" s="6" t="s">
         <v>3</v>
@@ -6836,16 +6833,16 @@
         <v>96</v>
       </c>
       <c r="B155" s="6" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C155" s="6" t="b">
         <v>1</v>
       </c>
       <c r="D155" s="6" t="s">
+        <v>484</v>
+      </c>
+      <c r="E155" s="6" t="s">
         <v>485</v>
-      </c>
-      <c r="E155" s="6" t="s">
-        <v>486</v>
       </c>
       <c r="F155" s="6" t="s">
         <v>3</v>
@@ -6868,7 +6865,7 @@
         <v>99</v>
       </c>
       <c r="B156" s="6" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C156" s="6" t="s">
         <v>3</v>
@@ -6900,7 +6897,7 @@
         <v>102</v>
       </c>
       <c r="B157" s="6" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C157" s="6" t="s">
         <v>3</v>
@@ -6932,7 +6929,7 @@
         <v>104</v>
       </c>
       <c r="B158" s="6" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C158" s="6" t="s">
         <v>3</v>
@@ -6964,7 +6961,7 @@
         <v>107</v>
       </c>
       <c r="B159" s="6" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C159" s="6" t="s">
         <v>3</v>
@@ -6996,7 +6993,7 @@
         <v>110</v>
       </c>
       <c r="B160" s="6" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C160" s="6" t="s">
         <v>3</v>
@@ -7028,7 +7025,7 @@
         <v>113</v>
       </c>
       <c r="B161" s="6" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C161" s="6" t="s">
         <v>3</v>
@@ -7060,16 +7057,16 @@
         <v>116</v>
       </c>
       <c r="B162" s="6" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C162" s="6" t="b">
         <v>1</v>
       </c>
       <c r="D162" s="6" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="E162" s="6" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="F162" s="6" t="s">
         <v>3</v>
@@ -7092,7 +7089,7 @@
         <v>118</v>
       </c>
       <c r="B163" s="6" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C163" s="6" t="s">
         <v>3</v>
@@ -7124,7 +7121,7 @@
         <v>120</v>
       </c>
       <c r="B164" s="6" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C164" s="6" t="s">
         <v>3</v>
@@ -7156,7 +7153,7 @@
         <v>18</v>
       </c>
       <c r="B165" s="6" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C165" s="6" t="s">
         <v>3</v>
@@ -7188,7 +7185,7 @@
         <v>21</v>
       </c>
       <c r="B166" s="6" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C166" s="6" t="b">
         <v>1</v>
@@ -7220,7 +7217,7 @@
         <v>23</v>
       </c>
       <c r="B167" s="6" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C167" s="6" t="b">
         <v>1</v>
@@ -7252,7 +7249,7 @@
         <v>122</v>
       </c>
       <c r="B168" s="6" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C168" s="6" t="s">
         <v>3</v>
@@ -7284,7 +7281,7 @@
         <v>124</v>
       </c>
       <c r="B169" s="6" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C169" s="6" t="s">
         <v>3</v>
@@ -7316,7 +7313,7 @@
         <v>126</v>
       </c>
       <c r="B170" s="6" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C170" s="6" t="s">
         <v>3</v>
@@ -7348,7 +7345,7 @@
         <v>128</v>
       </c>
       <c r="B171" s="6" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C171" s="6" t="s">
         <v>3</v>
@@ -7380,7 +7377,7 @@
         <v>25</v>
       </c>
       <c r="B172" s="6" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C172" s="6" t="s">
         <v>3</v>
@@ -7412,7 +7409,7 @@
         <v>27</v>
       </c>
       <c r="B173" s="6" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C173" s="6" t="s">
         <v>3</v>
@@ -7444,7 +7441,7 @@
         <v>29</v>
       </c>
       <c r="B174" s="6" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C174" s="6" t="s">
         <v>3</v>
@@ -7476,7 +7473,7 @@
         <v>450</v>
       </c>
       <c r="B175" s="6" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C175" s="6" t="s">
         <v>3</v>
@@ -7508,7 +7505,7 @@
         <v>452</v>
       </c>
       <c r="B176" s="6" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C176" s="6" t="s">
         <v>3</v>
@@ -7540,7 +7537,7 @@
         <v>454</v>
       </c>
       <c r="B177" s="6" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C177" s="6" t="s">
         <v>3</v>
@@ -7572,7 +7569,7 @@
         <v>456</v>
       </c>
       <c r="B178" s="6" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C178" s="6" t="s">
         <v>3</v>
@@ -7604,7 +7601,7 @@
         <v>458</v>
       </c>
       <c r="B179" s="6" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C179" s="6" t="s">
         <v>3</v>
@@ -7636,7 +7633,7 @@
         <v>460</v>
       </c>
       <c r="B180" s="6" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C180" s="6" t="s">
         <v>3</v>
@@ -7668,7 +7665,7 @@
         <v>31</v>
       </c>
       <c r="B181" s="6" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C181" s="6" t="s">
         <v>3</v>
@@ -7700,7 +7697,7 @@
         <v>130</v>
       </c>
       <c r="B182" s="6" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C182" s="6" t="s">
         <v>3</v>
@@ -7732,7 +7729,7 @@
         <v>33</v>
       </c>
       <c r="B183" s="6" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C183" s="6" t="s">
         <v>3</v>
@@ -7764,7 +7761,7 @@
         <v>36</v>
       </c>
       <c r="B184" s="6" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C184" s="6" t="s">
         <v>3</v>
@@ -7796,7 +7793,7 @@
         <v>38</v>
       </c>
       <c r="B185" s="6" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C185" s="6" t="s">
         <v>3</v>
@@ -7828,7 +7825,7 @@
         <v>40</v>
       </c>
       <c r="B186" s="6" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C186" s="6" t="s">
         <v>3</v>
@@ -7860,7 +7857,7 @@
         <v>42</v>
       </c>
       <c r="B187" s="6" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C187" s="6" t="s">
         <v>3</v>
@@ -7892,7 +7889,7 @@
         <v>44</v>
       </c>
       <c r="B188" s="6" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C188" s="6" t="s">
         <v>3</v>
@@ -7924,7 +7921,7 @@
         <v>133</v>
       </c>
       <c r="B189" s="6" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C189" s="6" t="s">
         <v>3</v>
@@ -7956,7 +7953,7 @@
         <v>46</v>
       </c>
       <c r="B190" s="6" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C190" s="6" t="s">
         <v>3</v>
@@ -7988,7 +7985,7 @@
         <v>135</v>
       </c>
       <c r="B191" s="6" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C191" s="6" t="s">
         <v>3</v>
@@ -8020,7 +8017,7 @@
         <v>137</v>
       </c>
       <c r="B192" s="6" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C192" s="6" t="s">
         <v>3</v>
@@ -8052,7 +8049,7 @@
         <v>139</v>
       </c>
       <c r="B193" s="6" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C193" s="6" t="s">
         <v>3</v>
@@ -8084,7 +8081,7 @@
         <v>141</v>
       </c>
       <c r="B194" s="6" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C194" s="6" t="s">
         <v>3</v>
@@ -8093,7 +8090,7 @@
         <v>3</v>
       </c>
       <c r="E194" s="6" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="F194" s="6" t="s">
         <v>3</v>
@@ -8116,7 +8113,7 @@
         <v>144</v>
       </c>
       <c r="B195" s="6" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C195" s="6" t="s">
         <v>3</v>
@@ -8148,7 +8145,7 @@
         <v>47</v>
       </c>
       <c r="B196" s="6" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C196" s="6" t="s">
         <v>3</v>
@@ -8180,7 +8177,7 @@
         <v>146</v>
       </c>
       <c r="B197" s="6" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C197" s="6" t="s">
         <v>3</v>
@@ -8212,7 +8209,7 @@
         <v>148</v>
       </c>
       <c r="B198" s="6" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C198" s="6" t="b">
         <v>1</v>
@@ -8221,7 +8218,7 @@
         <v>183</v>
       </c>
       <c r="E198" s="6" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="F198" s="6" t="s">
         <v>3</v>
@@ -8236,7 +8233,7 @@
         <v>2011</v>
       </c>
       <c r="J198" s="6" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="199" spans="1:10" x14ac:dyDescent="0.2">
@@ -8244,7 +8241,7 @@
         <v>150</v>
       </c>
       <c r="B199" s="6" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C199" s="6" t="s">
         <v>3</v>
@@ -8268,7 +8265,7 @@
         <v>2011</v>
       </c>
       <c r="J199" s="6" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="200" spans="1:10" x14ac:dyDescent="0.2">
@@ -8276,7 +8273,7 @@
         <v>50</v>
       </c>
       <c r="B200" s="6" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C200" s="6" t="s">
         <v>3</v>
@@ -8300,7 +8297,7 @@
         <v>2011</v>
       </c>
       <c r="J200" s="6" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="201" spans="1:10" x14ac:dyDescent="0.2">
@@ -8308,7 +8305,7 @@
         <v>53</v>
       </c>
       <c r="B201" s="6" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C201" s="6" t="b">
         <v>1</v>
@@ -8332,7 +8329,7 @@
         <v>2011</v>
       </c>
       <c r="J201" s="6" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="202" spans="1:10" x14ac:dyDescent="0.2">
@@ -8340,7 +8337,7 @@
         <v>153</v>
       </c>
       <c r="B202" s="6" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C202" s="6" t="s">
         <v>3</v>
@@ -8364,7 +8361,7 @@
         <v>2011</v>
       </c>
       <c r="J202" s="6" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="203" spans="1:10" x14ac:dyDescent="0.2">
@@ -8372,16 +8369,16 @@
         <v>156</v>
       </c>
       <c r="B203" s="6" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C203" s="6" t="b">
         <v>1</v>
       </c>
       <c r="D203" s="6" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="E203" s="6" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="F203" s="6" t="s">
         <v>3</v>
@@ -8396,7 +8393,7 @@
         <v>2011</v>
       </c>
       <c r="J203" s="6" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="204" spans="1:10" x14ac:dyDescent="0.2">
@@ -8404,7 +8401,7 @@
         <v>56</v>
       </c>
       <c r="B204" s="6" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C204" s="6" t="s">
         <v>3</v>
@@ -8428,7 +8425,7 @@
         <v>2009</v>
       </c>
       <c r="J204" s="6" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="205" spans="1:10" x14ac:dyDescent="0.2">
@@ -8436,16 +8433,16 @@
         <v>159</v>
       </c>
       <c r="B205" s="6" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C205" s="6" t="b">
         <v>1</v>
       </c>
       <c r="D205" s="6" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="E205" s="6" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="F205" s="6" t="s">
         <v>3</v>
@@ -8460,7 +8457,7 @@
         <v>2009</v>
       </c>
       <c r="J205" s="6" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="206" spans="1:10" x14ac:dyDescent="0.2">
@@ -8468,16 +8465,16 @@
         <v>162</v>
       </c>
       <c r="B206" s="6" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C206" s="6" t="b">
         <v>1</v>
       </c>
       <c r="D206" s="6" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="E206" s="6" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="F206" s="6" t="s">
         <v>3</v>
@@ -8492,7 +8489,7 @@
         <v>2009</v>
       </c>
       <c r="J206" s="6" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="207" spans="1:10" x14ac:dyDescent="0.2">
@@ -8500,7 +8497,7 @@
         <v>164</v>
       </c>
       <c r="B207" s="6" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C207" s="6" t="s">
         <v>3</v>
@@ -8532,7 +8529,7 @@
         <v>166</v>
       </c>
       <c r="B208" s="6" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C208" s="6" t="s">
         <v>3</v>
@@ -8564,7 +8561,7 @@
         <v>58</v>
       </c>
       <c r="B209" s="6" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C209" s="6" t="s">
         <v>3</v>
@@ -8596,7 +8593,7 @@
         <v>168</v>
       </c>
       <c r="B210" s="6" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C210" s="6" t="s">
         <v>3</v>
@@ -8628,7 +8625,7 @@
         <v>170</v>
       </c>
       <c r="B211" s="6" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C211" s="6" t="s">
         <v>3</v>
@@ -8660,7 +8657,7 @@
         <v>60</v>
       </c>
       <c r="B212" s="6" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C212" s="6" t="s">
         <v>3</v>
@@ -8692,7 +8689,7 @@
         <v>62</v>
       </c>
       <c r="B213" s="6" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C213" s="6" t="s">
         <v>3</v>
@@ -8724,7 +8721,7 @@
         <v>65</v>
       </c>
       <c r="B214" s="6" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C214" s="6" t="s">
         <v>3</v>
@@ -8756,7 +8753,7 @@
         <v>172</v>
       </c>
       <c r="B215" s="6" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C215" s="6" t="s">
         <v>3</v>
@@ -8788,7 +8785,7 @@
         <v>175</v>
       </c>
       <c r="B216" s="6" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C216" s="6" t="b">
         <v>1</v>
@@ -8820,7 +8817,7 @@
         <v>176</v>
       </c>
       <c r="B217" s="6" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C217" s="6" t="b">
         <v>1</v>
@@ -8852,7 +8849,7 @@
         <v>462</v>
       </c>
       <c r="B218" s="6" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C218" s="6" t="s">
         <v>3</v>

--- a/tabular/curated/hhv-ncbi-curated-side-data.xlsx
+++ b/tabular/curated/hhv-ncbi-curated-side-data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anna/Projects/virus/HHV6-GLUE/tabular/curated/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/general/HHV6-GLUE/tabular/curated/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BD81415-DF2A-C044-8869-0E4DB5A62B82}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62EE53FF-CE6A-6246-81D8-5552774E96B6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="760" yWindow="460" windowWidth="28040" windowHeight="16420" xr2:uid="{152BD880-3909-2046-B14F-08FB1215E865}"/>
+    <workbookView xWindow="15620" yWindow="2480" windowWidth="28040" windowHeight="16420" xr2:uid="{152BD880-3909-2046-B14F-08FB1215E865}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2097" uniqueCount="487">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2096" uniqueCount="488">
   <si>
     <t>sequenceID</t>
   </si>
@@ -1494,6 +1494,9 @@
   </si>
   <si>
     <t>lab_construct</t>
+  </si>
+  <si>
+    <t>Chr22q</t>
   </si>
 </sst>
 </file>
@@ -1888,8 +1891,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21D611B1-781A-E041-9B61-F125F05C4348}">
   <dimension ref="A1:J218"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="A1:J218"/>
+    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7155,11 +7158,11 @@
       <c r="B165" s="6" t="s">
         <v>465</v>
       </c>
-      <c r="C165" s="6" t="s">
-        <v>3</v>
+      <c r="C165" s="6" t="b">
+        <v>1</v>
       </c>
       <c r="D165" s="6" t="s">
-        <v>3</v>
+        <v>487</v>
       </c>
       <c r="E165" s="6" t="s">
         <v>3</v>

--- a/tabular/curated/hhv-ncbi-curated-side-data.xlsx
+++ b/tabular/curated/hhv-ncbi-curated-side-data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10308"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/general/HHV6-GLUE/tabular/curated/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rob/Projects/virus/comparative/DNAds/HHV6-GLUE/tabular/curated/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62EE53FF-CE6A-6246-81D8-5552774E96B6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD646304-02C7-D240-9E04-583622DDADC5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15620" yWindow="2480" windowWidth="28040" windowHeight="16420" xr2:uid="{152BD880-3909-2046-B14F-08FB1215E865}"/>
+    <workbookView xWindow="3480" yWindow="8080" windowWidth="27880" windowHeight="17540" xr2:uid="{152BD880-3909-2046-B14F-08FB1215E865}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1891,8 +1891,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21D611B1-781A-E041-9B61-F125F05C4348}">
   <dimension ref="A1:J218"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="A1:J218"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/tabular/curated/hhv-ncbi-curated-side-data.xlsx
+++ b/tabular/curated/hhv-ncbi-curated-side-data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10913"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anna/Projects/virus/HHV6-GLUE/tabular/curated/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/DNAds/HHV6-GLUE/tabular/curated/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BD81415-DF2A-C044-8869-0E4DB5A62B82}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2F005B2-A229-EC4A-94A8-96CEDAD141F9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="760" yWindow="460" windowWidth="28040" windowHeight="16420" xr2:uid="{152BD880-3909-2046-B14F-08FB1215E865}"/>
   </bookViews>
@@ -1889,7 +1889,7 @@
   <dimension ref="A1:J218"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="A1:J218"/>
+      <selection activeCell="B10" sqref="A1:J218"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
